--- a/public/Plantilla_Reporte_Trazabilidad_Pcl/plantilla_repor_traza_pcl.xlsx
+++ b/public/Plantilla_Reporte_Trazabilidad_Pcl/plantilla_repor_traza_pcl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro.ramirez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos.nino\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mirIQUEKN0IEt/Edr12FvLiXKGXRw=="/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>CAUSAL DEL INCUMPLIMIENTO 2DA CITA</t>
   </si>
@@ -218,12 +218,18 @@
   <si>
     <t>N° SOLICITUD 
 (ID EVENTO)</t>
+  </si>
+  <si>
+    <t>REQUIERE RECALIFICACIÓN</t>
+  </si>
+  <si>
+    <t>REQUIERE REVISIÓN PENSIÓN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -352,6 +358,43 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -375,7 +418,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -393,22 +436,25 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF7"/>
+  <dimension ref="A1:BH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,97 +733,99 @@
     <col min="38" max="38" width="18.42578125" customWidth="1"/>
     <col min="39" max="39" width="13.85546875" customWidth="1"/>
     <col min="40" max="40" width="17.85546875" customWidth="1"/>
-    <col min="41" max="41" width="20.85546875" customWidth="1"/>
-    <col min="42" max="42" width="19.85546875" customWidth="1"/>
-    <col min="43" max="43" width="24.42578125" customWidth="1"/>
-    <col min="44" max="44" width="18.85546875" customWidth="1"/>
-    <col min="45" max="45" width="16.42578125" customWidth="1"/>
-    <col min="46" max="46" width="22.140625" customWidth="1"/>
-    <col min="47" max="47" width="14.85546875" customWidth="1"/>
-    <col min="48" max="48" width="20.140625" customWidth="1"/>
-    <col min="49" max="49" width="15.85546875" customWidth="1"/>
-    <col min="50" max="50" width="19.5703125" customWidth="1"/>
+    <col min="41" max="43" width="20.85546875" customWidth="1"/>
+    <col min="44" max="44" width="19.85546875" customWidth="1"/>
+    <col min="45" max="45" width="24.42578125" customWidth="1"/>
+    <col min="46" max="46" width="18.85546875" customWidth="1"/>
+    <col min="47" max="47" width="16.42578125" customWidth="1"/>
+    <col min="48" max="48" width="22.140625" customWidth="1"/>
+    <col min="49" max="49" width="14.85546875" customWidth="1"/>
+    <col min="50" max="50" width="20.140625" customWidth="1"/>
     <col min="51" max="51" width="15.85546875" customWidth="1"/>
-    <col min="52" max="52" width="25.85546875" customWidth="1"/>
-    <col min="53" max="53" width="18.42578125" customWidth="1"/>
-    <col min="54" max="54" width="35.28515625" customWidth="1"/>
-    <col min="55" max="55" width="21.140625" customWidth="1"/>
-    <col min="56" max="56" width="21.85546875" customWidth="1"/>
-    <col min="57" max="57" width="27" customWidth="1"/>
-    <col min="58" max="58" width="19.42578125" customWidth="1"/>
+    <col min="52" max="52" width="19.5703125" customWidth="1"/>
+    <col min="53" max="53" width="15.85546875" customWidth="1"/>
+    <col min="54" max="54" width="25.85546875" customWidth="1"/>
+    <col min="55" max="55" width="18.42578125" customWidth="1"/>
+    <col min="56" max="56" width="35.28515625" customWidth="1"/>
+    <col min="57" max="57" width="21.140625" customWidth="1"/>
+    <col min="58" max="58" width="21.85546875" customWidth="1"/>
+    <col min="59" max="59" width="27" customWidth="1"/>
+    <col min="60" max="60" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="1" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:60" s="1" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="11" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="12" t="s">
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="13" t="s">
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="14" t="s">
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="14"/>
-      <c r="BD1" s="14"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="14"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
     </row>
-    <row r="2" spans="1:58" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -902,364 +950,70 @@
         <v>39</v>
       </c>
       <c r="AP2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AY2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="BB2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BC2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BD2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BE2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BF2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BG2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="BH2" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="7"/>
-      <c r="BB3" s="7"/>
-      <c r="BC3" s="7"/>
-      <c r="BD3" s="7"/>
-      <c r="BE3" s="7"/>
-      <c r="BF3" s="7"/>
-    </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="7"/>
-      <c r="BC4" s="7"/>
-      <c r="BD4" s="7"/>
-      <c r="BE4" s="7"/>
-      <c r="BF4" s="7"/>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="9"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="7"/>
-      <c r="BC5" s="7"/>
-      <c r="BD5" s="7"/>
-      <c r="BE5" s="9"/>
-      <c r="BF5" s="7"/>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-      <c r="BB6" s="7"/>
-      <c r="BC6" s="7"/>
-      <c r="BD6" s="7"/>
-      <c r="BE6" s="7"/>
-      <c r="BF6" s="7"/>
-    </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-      <c r="BB7" s="7"/>
-      <c r="BC7" s="7"/>
-      <c r="BD7" s="7"/>
-      <c r="BE7" s="9"/>
-      <c r="BF7" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:R1"/>
-    <mergeCell ref="BB1:BF1"/>
-    <mergeCell ref="AL1:BA1"/>
+    <mergeCell ref="BD1:BH1"/>
     <mergeCell ref="AD1:AK1"/>
     <mergeCell ref="S1:AC1"/>
+    <mergeCell ref="AL1:BC1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/Plantilla_Reporte_Trazabilidad_Pcl/plantilla_repor_traza_pcl.xlsx
+++ b/public/Plantilla_Reporte_Trazabilidad_Pcl/plantilla_repor_traza_pcl.xlsx
@@ -418,7 +418,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -457,6 +457,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,9 +702,9 @@
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" style="5" customWidth="1"/>
     <col min="8" max="8" width="38.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="14" customWidth="1"/>
     <col min="10" max="10" width="50.140625" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="11" max="11" width="16" style="14" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" customWidth="1"/>
